--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E578EE24-68DC-4BF3-AE10-8221495EAE22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E1636-53D6-4BF6-BD07-31A34D5589BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF386C0A-E7F8-45A3-984F-57BF99206109}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>semiesférica</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Entrada de la hornilla</t>
+  </si>
+  <si>
+    <t>Base molino</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ECFA37-5137-4E15-AB9D-4A61EFD1B2EC}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +478,7 @@
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -548,8 +551,11 @@
       <c r="X1" t="s">
         <v>15</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8000000</v>
       </c>
@@ -621,6 +627,9 @@
       </c>
       <c r="X2">
         <v>1000000</v>
+      </c>
+      <c r="Y2">
+        <v>1200000</v>
       </c>
     </row>
   </sheetData>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E1636-53D6-4BF6-BD07-31A34D5589BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE39B1A-74F5-4567-9BF1-3040FCF28BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF386C0A-E7F8-45A3-984F-57BF99206109}"/>
   </bookViews>
@@ -459,14 +459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ECFA37-5137-4E15-AB9D-4A61EFD1B2EC}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -557,43 +556,43 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8000000</v>
+        <v>14000000</v>
       </c>
       <c r="B2">
-        <v>6000000</v>
+        <v>13500000</v>
       </c>
       <c r="C2">
-        <v>9000000</v>
+        <v>22000000</v>
       </c>
       <c r="D2">
-        <v>11000000</v>
+        <v>18000000</v>
       </c>
       <c r="E2">
-        <v>4000000</v>
+        <v>12000000</v>
       </c>
       <c r="F2">
-        <v>7000000</v>
+        <v>18000000</v>
       </c>
       <c r="G2">
+        <v>17000000</v>
+      </c>
+      <c r="H2">
+        <v>15500000</v>
+      </c>
+      <c r="I2">
+        <v>14100000</v>
+      </c>
+      <c r="J2">
+        <v>19000000</v>
+      </c>
+      <c r="K2">
+        <v>18500000</v>
+      </c>
+      <c r="L2">
         <v>5000000</v>
       </c>
-      <c r="H2">
-        <v>9100000</v>
-      </c>
-      <c r="I2">
-        <v>11100000</v>
-      </c>
-      <c r="J2">
-        <v>9500000</v>
-      </c>
-      <c r="K2">
-        <v>11500000</v>
-      </c>
-      <c r="L2">
-        <v>1000000</v>
-      </c>
       <c r="M2">
-        <v>2000000</v>
+        <v>3500000</v>
       </c>
       <c r="N2">
         <v>2600</v>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE39B1A-74F5-4567-9BF1-3040FCF28BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21DF07C-87F9-45F0-87E3-6A119AFD648D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF386C0A-E7F8-45A3-984F-57BF99206109}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>semiesférica</t>
   </si>
@@ -106,6 +108,12 @@
   </si>
   <si>
     <t>Base molino</t>
+  </si>
+  <si>
+    <t>Paila melotera</t>
+  </si>
+  <si>
+    <t>Accesorios paila melotera</t>
   </si>
 </sst>
 </file>
@@ -457,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ECFA37-5137-4E15-AB9D-4A61EFD1B2EC}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,9 +483,11 @@
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -553,13 +563,19 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14000000</v>
+        <v>4000000</v>
       </c>
       <c r="B2">
-        <v>13500000</v>
+        <v>3500000</v>
       </c>
       <c r="C2">
         <v>22000000</v>
@@ -568,25 +584,25 @@
         <v>18000000</v>
       </c>
       <c r="E2">
-        <v>12000000</v>
+        <v>2000000</v>
       </c>
       <c r="F2">
-        <v>18000000</v>
+        <v>8000000</v>
       </c>
       <c r="G2">
-        <v>17000000</v>
+        <v>7000000</v>
       </c>
       <c r="H2">
-        <v>15500000</v>
+        <v>5500000</v>
       </c>
       <c r="I2">
-        <v>14100000</v>
+        <v>4100000</v>
       </c>
       <c r="J2">
-        <v>19000000</v>
+        <v>9000000</v>
       </c>
       <c r="K2">
-        <v>18500000</v>
+        <v>8500000</v>
       </c>
       <c r="L2">
         <v>5000000</v>
@@ -629,6 +645,12 @@
       </c>
       <c r="Y2">
         <v>1200000</v>
+      </c>
+      <c r="Z2">
+        <v>5000000</v>
+      </c>
+      <c r="AA2">
+        <v>250000</v>
       </c>
     </row>
   </sheetData>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21DF07C-87F9-45F0-87E3-6A119AFD648D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82794E4-713E-4AAA-9417-4888A798BE59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF386C0A-E7F8-45A3-984F-57BF99206109}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,19 +572,19 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4000000</v>
+        <v>11000000</v>
       </c>
       <c r="B2">
-        <v>3500000</v>
+        <v>9000000</v>
       </c>
       <c r="C2">
-        <v>22000000</v>
+        <v>11000000</v>
       </c>
       <c r="D2">
-        <v>18000000</v>
+        <v>13000000</v>
       </c>
       <c r="E2">
-        <v>2000000</v>
+        <v>9000000</v>
       </c>
       <c r="F2">
         <v>8000000</v>
@@ -593,16 +593,16 @@
         <v>7000000</v>
       </c>
       <c r="H2">
-        <v>5500000</v>
+        <v>11000000</v>
       </c>
       <c r="I2">
-        <v>4100000</v>
+        <v>13000000</v>
       </c>
       <c r="J2">
         <v>9000000</v>
       </c>
       <c r="K2">
-        <v>8500000</v>
+        <v>11000000</v>
       </c>
       <c r="L2">
         <v>5000000</v>
